--- a/model/datasets/Dengue_WestVis_Fct.xlsx
+++ b/model/datasets/Dengue_WestVis_Fct.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirrolytix\Documents\GitHub\nasa_hack\nasa_hack\model\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fct" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t>MTD_Cases</t>
   </si>
@@ -109,15 +115,33 @@
   <si>
     <t>[2.978673181693372e-05, 0.0039754215729217906, 0.5340970889497474, 0.0072764515515095106, 0.15593212233493137, 0.057294666788385774, 0.000791511670443451, 0.28418807544434915, 0.08781382123903754, 0.1254466572142237, 0.31111533201088926, 0.005381478419548524, 0.10741403637187245, 0.05410913531300976, 0.018393062589401037, 0.01596915962055207, 0.04063156138795153, 0.08833234063903823, 0.10544195472004383]</t>
   </si>
+  <si>
+    <t>Actual Cases</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -177,13 +201,1603 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2118.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1386.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2245.416666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6081.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4471</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4310</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3942.916666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-883C-48DA-9A7A-A6F83939059B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$K$2:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>384.07139737243818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>614.36439054227242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1577.217588463368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>976.41118871733147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1710.7106230425441</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1351.023392148448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1091.7632557455679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1160.4955163360701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1834.7080063978001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297.21893993843599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1094.9757549555591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1665.584091562064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2606.4403826725402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>730.4191661796242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2647.7019683597659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5560.9160458633723</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10443.805227908389</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7009.4092020842627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5364.9390335769267</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6932.6885286210327</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-811.68327235569654</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>662.1101047673485</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.8053975999637</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>355.78261068126619</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1384.5662192803859</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>528.6228957253652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>906.55079792467359</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2060.7812789414361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>417.97915861575899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1919.627924448326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2392.8292089864858</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1677.947912632711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5094.9309063213104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>399.1384341337581</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2812.9174824592028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.795548706559</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>328.87960550832918</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2252.4362945470998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4235.1424646621899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5390.5546417221767</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2522.6838076863819</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-10693.4022321087</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18725.906234326161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7089.5084267049433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-883C-48DA-9A7A-A6F83939059B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$L$2:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>312.82122369715671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>619.39526271324939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1492.3306300443789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1275.1823743597499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1802.5119482909579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1358.8368732567619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>935.29750286020919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024.914814246835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2058.753303367921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>608.67365503386293</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1202.3387486936001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1441.771833290105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2536.7880024217952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>734.74623107808077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2328.453647067317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5183.9053928739959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10712.3514971062</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7083.0101905358861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5976.2100834151606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7528.1337449938419</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1123.454481298442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1065.592325070726</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.629382643499731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>420.87748533509972</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1318.216569972672</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>503.9643654906759</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>894.07744791883999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2034.069870303696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>211.1184391924468</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1892.8846142669911</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1907.751390424874</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1643.9176010545009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4738.1568787046108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>854.7434375888563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2894.034264931724</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105.87221678344601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>239.04910749527761</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2233.827379424059</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4204.2704213155384</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5378.6212594711396</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4507.6369751783041</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-10146.72986304464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18618.356230250662</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6869.4583226561481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-883C-48DA-9A7A-A6F83939059B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$M$2:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>301.78343102418091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650.49060959212284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1635.2927116947401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007.291778248711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1531.1700655355521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1454.3268777782971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1234.9787205075379</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049.0464662629661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1559.620634262367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310.91233688865088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1140.1575050816029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1676.0349176433349</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2942.1655029573171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>726.57443004516699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2614.4569535229089</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5594.0038307483474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10676.669164847321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7156.6607844468936</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5382.3031360545911</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7413.0604318200176</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-542.99113268944177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>646.15432049494541</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251.86351909277991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>352.74303090556771</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1170.5514473338119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>518.08183676838098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>967.53985071387342</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2038.5477677956319</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>615.22714729897996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1782.6416222872649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2693.6752988909311</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1749.911369917507</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5285.8566293903414</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390.67529062089483</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2779.1753645313952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>145.08631952262951</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>181.61664105908639</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2330.7062307032388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4337.674533447971</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5199.2871360248164</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2026.707992724206</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9955.263005330713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18875.003315758851</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7154.3541638844781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-883C-48DA-9A7A-A6F83939059B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="449280208"/>
+        <c:axId val="449279792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="449280208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449279792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449279792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449280208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -229,7 +1843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +1875,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +1910,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,14 +2086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -518,7 +2136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -535,7 +2153,7 @@
         <v>64</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G2">
         <v>0.155</v>
@@ -544,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
@@ -567,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="F3">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G3">
         <v>0.125</v>
@@ -579,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008849557522123894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>8.8495575221238937E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
@@ -599,10 +2217,10 @@
         <v>26.5</v>
       </c>
       <c r="F4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G4">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -614,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
@@ -631,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="F5">
-        <v>0.0275</v>
+        <v>2.75E-2</v>
       </c>
       <c r="G5">
         <v>0.1875</v>
@@ -640,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
@@ -663,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G6">
         <v>0.08</v>
@@ -672,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>384.0713973724382</v>
+        <v>384.07139737243818</v>
       </c>
       <c r="L6">
-        <v>312.8212236971567</v>
+        <v>312.82122369715671</v>
       </c>
       <c r="M6">
-        <v>301.7834310241809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>301.78343102418091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
@@ -704,7 +2322,7 @@
         <v>196</v>
       </c>
       <c r="F7">
-        <v>0.0525</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -716,19 +2334,19 @@
         <v>0.18</v>
       </c>
       <c r="J7">
-        <v>0.005698005698005698</v>
+        <v>5.6980056980056983E-3</v>
       </c>
       <c r="K7">
-        <v>614.3643905422724</v>
+        <v>614.36439054227242</v>
       </c>
       <c r="L7">
-        <v>619.3952627132494</v>
+        <v>619.39526271324939</v>
       </c>
       <c r="M7">
-        <v>650.4906095921228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>650.49060959212284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
@@ -757,19 +2375,19 @@
         <v>0.1925</v>
       </c>
       <c r="J8">
-        <v>0.002773925104022191</v>
+        <v>2.773925104022191E-3</v>
       </c>
       <c r="K8">
         <v>1577.217588463368</v>
       </c>
       <c r="L8">
-        <v>1492.330630044379</v>
+        <v>1492.3306300443789</v>
       </c>
       <c r="M8">
-        <v>1635.29271169474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1635.2927116947401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
@@ -789,7 +2407,7 @@
         <v>0.122</v>
       </c>
       <c r="G9">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -798,19 +2416,19 @@
         <v>0.154</v>
       </c>
       <c r="J9">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>976.4111887173315</v>
+        <v>976.41118871733147</v>
       </c>
       <c r="L9">
-        <v>1275.18237435975</v>
+        <v>1275.1823743597499</v>
       </c>
       <c r="M9">
         <v>1007.291778248711</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
@@ -827,10 +2445,10 @@
         <v>327</v>
       </c>
       <c r="F10">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G10">
-        <v>0.3025</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -839,19 +2457,19 @@
         <v>0.1275</v>
       </c>
       <c r="J10">
-        <v>0.002949852507374631</v>
+        <v>2.9498525073746308E-3</v>
       </c>
       <c r="K10">
-        <v>1710.710623042544</v>
+        <v>1710.7106230425441</v>
       </c>
       <c r="L10">
-        <v>1802.511948290958</v>
+        <v>1802.5119482909579</v>
       </c>
       <c r="M10">
-        <v>1531.170065535552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1531.1700655355521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
@@ -871,7 +2489,7 @@
         <v>0.105</v>
       </c>
       <c r="G11">
-        <v>0.2375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,19 +2498,19 @@
         <v>0.13</v>
       </c>
       <c r="J11">
-        <v>0.002949852507374631</v>
+        <v>2.9498525073746308E-3</v>
       </c>
       <c r="K11">
         <v>1351.023392148448</v>
       </c>
       <c r="L11">
-        <v>1358.836873256762</v>
+        <v>1358.8368732567619</v>
       </c>
       <c r="M11">
-        <v>1454.326877778297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1454.3268777782971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
@@ -909,7 +2527,7 @@
         <v>61</v>
       </c>
       <c r="F12">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G12">
         <v>0.18</v>
@@ -921,19 +2539,19 @@
         <v>0.05</v>
       </c>
       <c r="J12">
-        <v>0.007213706041478809</v>
+        <v>7.2137060414788094E-3</v>
       </c>
       <c r="K12">
-        <v>1091.763255745568</v>
+        <v>1091.7632557455679</v>
       </c>
       <c r="L12">
-        <v>935.2975028602092</v>
+        <v>935.29750286020919</v>
       </c>
       <c r="M12">
-        <v>1234.978720507538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1234.9787205075379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
@@ -953,28 +2571,28 @@
         <v>0.1125</v>
       </c>
       <c r="G13">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="H13">
         <v>0.25</v>
       </c>
       <c r="I13">
-        <v>0.0675</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="J13">
-        <v>0.006123585080719985</v>
+        <v>6.1235850807199853E-3</v>
       </c>
       <c r="K13">
-        <v>1160.49551633607</v>
+        <v>1160.4955163360701</v>
       </c>
       <c r="L13">
         <v>1024.914814246835</v>
       </c>
       <c r="M13">
-        <v>1049.046466262966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1049.0464662629661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
@@ -991,10 +2609,10 @@
         <v>76.5</v>
       </c>
       <c r="F14">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G14">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1003,10 +2621,10 @@
         <v>0.1</v>
       </c>
       <c r="J14">
-        <v>0.002173913043478261</v>
+        <v>2.1739130434782609E-3</v>
       </c>
       <c r="K14">
-        <v>1834.7080063978</v>
+        <v>1834.7080063978001</v>
       </c>
       <c r="L14">
         <v>2058.753303367921</v>
@@ -1015,7 +2633,7 @@
         <v>1559.620634262367</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
@@ -1032,7 +2650,7 @@
         <v>67</v>
       </c>
       <c r="F15">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15">
         <v>0.12</v>
@@ -1047,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>297.218939938436</v>
+        <v>297.21893993843599</v>
       </c>
       <c r="L15">
-        <v>608.6736550338629</v>
+        <v>608.67365503386293</v>
       </c>
       <c r="M15">
-        <v>310.9123368886509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>310.91233688865088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
@@ -1076,28 +2694,28 @@
         <v>0.02</v>
       </c>
       <c r="G16">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J16">
-        <v>0.003476245654692932</v>
+        <v>3.476245654692932E-3</v>
       </c>
       <c r="K16">
-        <v>1094.975754955559</v>
+        <v>1094.9757549555591</v>
       </c>
       <c r="L16">
-        <v>1202.3387486936</v>
+        <v>1202.3387486936001</v>
       </c>
       <c r="M16">
-        <v>1140.157505081603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1140.1575050816029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
@@ -1126,7 +2744,7 @@
         <v>0.03</v>
       </c>
       <c r="J17">
-        <v>0.002369668246445498</v>
+        <v>2.3696682464454978E-3</v>
       </c>
       <c r="K17">
         <v>1665.584091562064</v>
@@ -1135,10 +2753,10 @@
         <v>1441.771833290105</v>
       </c>
       <c r="M17">
-        <v>1676.034917643335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1676.0349176433349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
@@ -1155,10 +2773,10 @@
         <v>77.5</v>
       </c>
       <c r="F18">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G18">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1170,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>-2606.44038267254</v>
+        <v>-2606.4403826725402</v>
       </c>
       <c r="L18">
-        <v>-2536.788002421795</v>
+        <v>-2536.7880024217952</v>
       </c>
       <c r="M18">
-        <v>-2942.165502957317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>-2942.1655029573171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -1199,7 +2817,7 @@
         <v>0.04</v>
       </c>
       <c r="G19">
-        <v>0.1175</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1208,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.002366863905325444</v>
+        <v>2.3668639053254438E-3</v>
       </c>
       <c r="K19">
         <v>730.4191661796242</v>
       </c>
       <c r="L19">
-        <v>734.7462310780808</v>
+        <v>734.74623107808077</v>
       </c>
       <c r="M19">
-        <v>726.574430045167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>726.57443004516699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
@@ -1237,31 +2855,31 @@
         <v>205.5</v>
       </c>
       <c r="F20">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G20">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J20">
-        <v>0.003193033381712627</v>
+        <v>3.1930333817126269E-3</v>
       </c>
       <c r="K20">
-        <v>2647.701968359766</v>
+        <v>2647.7019683597659</v>
       </c>
       <c r="L20">
         <v>2328.453647067317</v>
       </c>
       <c r="M20">
-        <v>2614.456953522909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2614.4569535229089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
@@ -1278,31 +2896,31 @@
         <v>76.5</v>
       </c>
       <c r="F21">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G21">
-        <v>0.3675</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="H21">
         <v>0.2225</v>
       </c>
       <c r="I21">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="J21">
-        <v>0.00297945742512153</v>
+        <v>2.97945742512153E-3</v>
       </c>
       <c r="K21">
-        <v>5560.916045863372</v>
+        <v>5560.9160458633723</v>
       </c>
       <c r="L21">
-        <v>5183.905392873996</v>
+        <v>5183.9053928739959</v>
       </c>
       <c r="M21">
-        <v>5594.003830748347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5594.0038307483474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
@@ -1322,28 +2940,28 @@
         <v>0.22</v>
       </c>
       <c r="G22">
-        <v>0.3475</v>
+        <v>0.34749999999999998</v>
       </c>
       <c r="H22">
         <v>0.32</v>
       </c>
       <c r="I22">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="J22">
-        <v>0.003412414689632759</v>
+        <v>3.4124146896327588E-3</v>
       </c>
       <c r="K22">
-        <v>10443.80522790839</v>
+        <v>10443.805227908389</v>
       </c>
       <c r="L22">
         <v>10712.3514971062</v>
       </c>
       <c r="M22">
-        <v>10676.66916484732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10676.669164847321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
@@ -1360,31 +2978,31 @@
         <v>-999</v>
       </c>
       <c r="F23">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="G23">
         <v>0.17</v>
       </c>
       <c r="H23">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I23">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="J23">
-        <v>0.004933196300102775</v>
+        <v>4.933196300102775E-3</v>
       </c>
       <c r="K23">
-        <v>7009.409202084263</v>
+        <v>7009.4092020842627</v>
       </c>
       <c r="L23">
-        <v>7083.010190535886</v>
+        <v>7083.0101905358861</v>
       </c>
       <c r="M23">
-        <v>7156.660784446894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7156.6607844468936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
@@ -1401,7 +3019,7 @@
         <v>325.5</v>
       </c>
       <c r="F24">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G24">
         <v>0.18</v>
@@ -1410,22 +3028,22 @@
         <v>0.1</v>
       </c>
       <c r="I24">
-        <v>0.0825</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="J24">
-        <v>0.004933196300102775</v>
+        <v>4.933196300102775E-3</v>
       </c>
       <c r="K24">
-        <v>5364.939033576927</v>
+        <v>5364.9390335769267</v>
       </c>
       <c r="L24">
-        <v>5976.210083415161</v>
+        <v>5976.2100834151606</v>
       </c>
       <c r="M24">
-        <v>5382.303136054591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5382.3031360545911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
@@ -1442,10 +3060,10 @@
         <v>244.5</v>
       </c>
       <c r="F25">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G25">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1454,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.007276034561164165</v>
+        <v>7.2760345611641653E-3</v>
       </c>
       <c r="K25">
-        <v>6932.688528621033</v>
+        <v>6932.6885286210327</v>
       </c>
       <c r="L25">
-        <v>7528.133744993842</v>
+        <v>7528.1337449938419</v>
       </c>
       <c r="M25">
-        <v>7413.060431820018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7413.0604318200176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
@@ -1483,31 +3101,31 @@
         <v>289.5</v>
       </c>
       <c r="F26">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="G26">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J26">
-        <v>0.009328358208955223</v>
+        <v>9.3283582089552231E-3</v>
       </c>
       <c r="K26">
-        <v>-811.6832723556965</v>
+        <v>-811.68327235569654</v>
       </c>
       <c r="L26">
         <v>-1123.454481298442</v>
       </c>
       <c r="M26">
-        <v>-542.9911326894418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>-542.99113268944177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
@@ -1524,19 +3142,19 @@
         <v>55</v>
       </c>
       <c r="F27">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G27">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H27">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="I27">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="J27">
-        <v>0.009523809523809525</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="K27">
         <v>662.1101047673485</v>
@@ -1545,10 +3163,10 @@
         <v>1065.592325070726</v>
       </c>
       <c r="M27">
-        <v>646.1543204949454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>646.15432049494541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
@@ -1565,16 +3183,16 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="G28">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1583,13 +3201,13 @@
         <v>123.8053975999637</v>
       </c>
       <c r="L28">
-        <v>29.62938264349973</v>
+        <v>29.629382643499731</v>
       </c>
       <c r="M28">
-        <v>251.8635190927799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>251.86351909277991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
@@ -1606,31 +3224,31 @@
         <v>88.5</v>
       </c>
       <c r="F29">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G29">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J29">
-        <v>0.01271186440677966</v>
+        <v>1.271186440677966E-2</v>
       </c>
       <c r="K29">
-        <v>355.7826106812662</v>
+        <v>355.78261068126619</v>
       </c>
       <c r="L29">
-        <v>420.8774853350997</v>
+        <v>420.87748533509972</v>
       </c>
       <c r="M29">
-        <v>352.7430309055677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>352.74303090556771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
@@ -1647,7 +3265,7 @@
         <v>236</v>
       </c>
       <c r="F30">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G30">
         <v>0.105</v>
@@ -1659,19 +3277,19 @@
         <v>0.06</v>
       </c>
       <c r="J30">
-        <v>0.01694915254237288</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="K30">
-        <v>1384.566219280386</v>
+        <v>1384.5662192803859</v>
       </c>
       <c r="L30">
         <v>1318.216569972672</v>
       </c>
       <c r="M30">
-        <v>1170.551447333812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1170.5514473338119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -1688,19 +3306,19 @@
         <v>344.5</v>
       </c>
       <c r="F31">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G31">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H31">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="I31">
         <v>0.1</v>
       </c>
       <c r="J31">
-        <v>0.008368200836820083</v>
+        <v>8.368200836820083E-3</v>
       </c>
       <c r="K31">
         <v>528.6228957253652</v>
@@ -1709,10 +3327,10 @@
         <v>503.9643654906759</v>
       </c>
       <c r="M31">
-        <v>518.081836768381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>518.08183676838098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
@@ -1729,31 +3347,31 @@
         <v>296</v>
       </c>
       <c r="F32">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G32">
         <v>0.09</v>
       </c>
       <c r="H32">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I32">
         <v>0.152</v>
       </c>
       <c r="J32">
-        <v>0.004296455424274973</v>
+        <v>4.296455424274973E-3</v>
       </c>
       <c r="K32">
-        <v>906.5507979246736</v>
+        <v>906.55079792467359</v>
       </c>
       <c r="L32">
-        <v>894.07744791884</v>
+        <v>894.07744791883999</v>
       </c>
       <c r="M32">
-        <v>967.5398507138734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>967.53985071387342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
@@ -1770,31 +3388,31 @@
         <v>125.5</v>
       </c>
       <c r="F33">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G33">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="H33">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I33">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="J33">
-        <v>0.009747706422018349</v>
+        <v>9.7477064220183492E-3</v>
       </c>
       <c r="K33">
-        <v>2060.781278941436</v>
+        <v>2060.7812789414361</v>
       </c>
       <c r="L33">
         <v>2034.069870303696</v>
       </c>
       <c r="M33">
-        <v>2038.547767795632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2038.5477677956319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
@@ -1811,31 +3429,31 @@
         <v>329</v>
       </c>
       <c r="F34">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="G34">
-        <v>0.2025</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="H34">
         <v>0.12</v>
       </c>
       <c r="I34">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>417.979158615759</v>
+        <v>417.97915861575899</v>
       </c>
       <c r="L34">
         <v>211.1184391924468</v>
       </c>
       <c r="M34">
-        <v>615.22714729898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>615.22714729897996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
@@ -1858,25 +3476,25 @@
         <v>0.15</v>
       </c>
       <c r="H35">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I35">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J35">
-        <v>0.01313535122786979</v>
+        <v>1.3135351227869791E-2</v>
       </c>
       <c r="K35">
         <v>1919.627924448326</v>
       </c>
       <c r="L35">
-        <v>1892.884614266991</v>
+        <v>1892.8846142669911</v>
       </c>
       <c r="M35">
-        <v>1782.641622287265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1782.6416222872649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
@@ -1893,31 +3511,31 @@
         <v>191.5</v>
       </c>
       <c r="F36">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G36">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.0275</v>
+        <v>2.75E-2</v>
       </c>
       <c r="J36">
-        <v>0.01310861423220974</v>
+        <v>1.310861423220974E-2</v>
       </c>
       <c r="K36">
-        <v>2392.829208986486</v>
+        <v>2392.8292089864858</v>
       </c>
       <c r="L36">
         <v>1907.751390424874</v>
       </c>
       <c r="M36">
-        <v>2693.675298890931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2693.6752988909311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
@@ -1934,31 +3552,31 @@
         <v>476.5</v>
       </c>
       <c r="F37">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G37">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H37">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I37">
         <v>0.09</v>
       </c>
       <c r="J37">
-        <v>0.008988764044943821</v>
+        <v>8.988764044943821E-3</v>
       </c>
       <c r="K37">
         <v>1677.947912632711</v>
       </c>
       <c r="L37">
-        <v>1643.917601054501</v>
+        <v>1643.9176010545009</v>
       </c>
       <c r="M37">
         <v>1749.911369917507</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
@@ -1981,25 +3599,25 @@
         <v>0.1</v>
       </c>
       <c r="H38">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I38">
         <v>0.08</v>
       </c>
       <c r="J38">
-        <v>0.004889975550122249</v>
+        <v>4.8899755501222494E-3</v>
       </c>
       <c r="K38">
-        <v>5094.93090632131</v>
+        <v>5094.9309063213104</v>
       </c>
       <c r="L38">
-        <v>4738.156878704611</v>
+        <v>4738.1568787046108</v>
       </c>
       <c r="M38">
-        <v>5285.856629390341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5285.8566293903414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
@@ -2016,19 +3634,19 @@
         <v>153.5</v>
       </c>
       <c r="F39">
-        <v>0.0675</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G39">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J39">
-        <v>0.005964214711729622</v>
+        <v>5.9642147117296221E-3</v>
       </c>
       <c r="K39">
         <v>399.1384341337581</v>
@@ -2037,10 +3655,10 @@
         <v>854.7434375888563</v>
       </c>
       <c r="M39">
-        <v>390.6752906208948</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>390.67529062089483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
@@ -2057,10 +3675,10 @@
         <v>54</v>
       </c>
       <c r="F40">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G40">
-        <v>0.0225</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2069,19 +3687,19 @@
         <v>0.04</v>
       </c>
       <c r="J40">
-        <v>0.01578947368421053</v>
+        <v>1.578947368421053E-2</v>
       </c>
       <c r="K40">
-        <v>2812.917482459203</v>
+        <v>2812.9174824592028</v>
       </c>
       <c r="L40">
         <v>2894.034264931724</v>
       </c>
       <c r="M40">
-        <v>2779.175364531395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2779.1753645313952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
@@ -2098,7 +3716,7 @@
         <v>91.5</v>
       </c>
       <c r="F41">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G41">
         <v>0.12</v>
@@ -2110,19 +3728,19 @@
         <v>0.04</v>
       </c>
       <c r="J41">
-        <v>0.005434782608695652</v>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="K41">
         <v>170.795548706559</v>
       </c>
       <c r="L41">
-        <v>105.872216783446</v>
+        <v>105.87221678344601</v>
       </c>
       <c r="M41">
-        <v>145.0863195226295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>145.08631952262951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
@@ -2139,10 +3757,10 @@
         <v>205.5</v>
       </c>
       <c r="F42">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G42">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2151,19 +3769,19 @@
         <v>0.06</v>
       </c>
       <c r="J42">
-        <v>0.003838771593090211</v>
+        <v>3.838771593090211E-3</v>
       </c>
       <c r="K42">
-        <v>328.8796055083292</v>
+        <v>328.87960550832918</v>
       </c>
       <c r="L42">
-        <v>239.0491074952776</v>
+        <v>239.04910749527761</v>
       </c>
       <c r="M42">
-        <v>181.6166410590864</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>181.61664105908639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
@@ -2180,31 +3798,31 @@
         <v>279.5</v>
       </c>
       <c r="F43">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G43">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J43">
-        <v>0.01054852320675105</v>
+        <v>1.0548523206751049E-2</v>
       </c>
       <c r="K43">
-        <v>2252.4362945471</v>
+        <v>2252.4362945470998</v>
       </c>
       <c r="L43">
         <v>2233.827379424059</v>
       </c>
       <c r="M43">
-        <v>2330.706230703239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2330.7062307032388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
@@ -2221,7 +3839,7 @@
         <v>152</v>
       </c>
       <c r="F44">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G44">
         <v>0.152</v>
@@ -2236,16 +3854,16 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>4235.14246466219</v>
+        <v>4235.1424646621899</v>
       </c>
       <c r="L44">
-        <v>4204.270421315538</v>
+        <v>4204.2704213155384</v>
       </c>
       <c r="M44">
         <v>4337.674533447971</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
@@ -2262,31 +3880,31 @@
         <v>421.5</v>
       </c>
       <c r="F45">
-        <v>0.0925</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="G45">
         <v>0.1275</v>
       </c>
       <c r="H45">
-        <v>0.0425</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="I45">
         <v>0.11</v>
       </c>
       <c r="J45">
-        <v>0.007380899127711922</v>
+        <v>7.3808991277119224E-3</v>
       </c>
       <c r="K45">
-        <v>5390.554641722177</v>
+        <v>5390.5546417221767</v>
       </c>
       <c r="L45">
-        <v>5378.62125947114</v>
+        <v>5378.6212594711396</v>
       </c>
       <c r="M45">
-        <v>5199.287136024816</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5199.2871360248164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
@@ -2303,31 +3921,31 @@
         <v>157</v>
       </c>
       <c r="F46">
-        <v>0.08199999999999999</v>
+        <v>8.199999999999999E-2</v>
       </c>
       <c r="G46">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H46">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I46">
         <v>0.106</v>
       </c>
       <c r="J46">
-        <v>0.005220417633410673</v>
+        <v>5.2204176334106726E-3</v>
       </c>
       <c r="K46">
-        <v>-2522.683807686382</v>
+        <v>-2522.6838076863819</v>
       </c>
       <c r="L46">
-        <v>-4507.636975178304</v>
+        <v>-4507.6369751783041</v>
       </c>
       <c r="M46">
         <v>-2026.707992724206</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
@@ -2344,7 +3962,7 @@
         <v>87</v>
       </c>
       <c r="F47">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G47">
         <v>0.1075</v>
@@ -2353,10 +3971,10 @@
         <v>0.08</v>
       </c>
       <c r="I47">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J47">
-        <v>0.002747543062453767</v>
+        <v>2.7475430624537668E-3</v>
       </c>
       <c r="K47">
         <v>-10693.4022321087</v>
@@ -2368,7 +3986,7 @@
         <v>-9955.263005330713</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
@@ -2385,31 +4003,31 @@
         <v>151</v>
       </c>
       <c r="F48">
-        <v>0.0725</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G48">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>0.0425</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="I48">
-        <v>0.0525</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="J48">
-        <v>0.005344418052256532</v>
+        <v>5.3444180522565317E-3</v>
       </c>
       <c r="K48">
-        <v>18725.90623432616</v>
+        <v>18725.906234326161</v>
       </c>
       <c r="L48">
-        <v>18618.35623025066</v>
+        <v>18618.356230250662</v>
       </c>
       <c r="M48">
-        <v>18875.00331575885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>18875.003315758851</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
@@ -2426,7 +4044,7 @@
         <v>154.5</v>
       </c>
       <c r="F49">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G49">
         <v>0.09</v>
@@ -2435,19 +4053,2454 @@
         <v>0.06</v>
       </c>
       <c r="I49">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J49">
-        <v>0.002695417789757413</v>
+        <v>2.695417789757413E-3</v>
       </c>
       <c r="K49">
-        <v>7089.508426704943</v>
+        <v>7089.5084267049433</v>
       </c>
       <c r="L49">
-        <v>6869.458322656148</v>
+        <v>6869.4583226561481</v>
       </c>
       <c r="M49">
-        <v>7154.354163884478</v>
+        <v>7154.3541638844781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42125</v>
+      </c>
+      <c r="C3">
+        <v>214</v>
+      </c>
+      <c r="E3">
+        <v>384.07139737243818</v>
+      </c>
+      <c r="F3">
+        <f>IF(E3&lt;0,0,E3)</f>
+        <v>384.07139737243818</v>
+      </c>
+      <c r="G3">
+        <v>312.82122369715671</v>
+      </c>
+      <c r="H3">
+        <f>IF(G3&lt;0,0,G3)</f>
+        <v>312.82122369715671</v>
+      </c>
+      <c r="I3">
+        <v>301.78343102418091</v>
+      </c>
+      <c r="J3">
+        <f>IF(I3&lt;0,0,I3)</f>
+        <v>301.78343102418091</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(A3,"mmm-yy"),L3)</f>
+        <v>"May-15"</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(C3,"##"),L3)</f>
+        <v>"214"</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(F3,"##"),L3)</f>
+        <v>"384"</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(H3,"##"),L3)</f>
+        <v>"313"</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(K3,L3,TEXT(J3,"##"),L3)</f>
+        <v>"302"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42156</v>
+      </c>
+      <c r="C4">
+        <v>351</v>
+      </c>
+      <c r="E4">
+        <v>614.36439054227242</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:H46" si="0">IF(E4&lt;0,0,E4)</f>
+        <v>614.36439054227242</v>
+      </c>
+      <c r="G4">
+        <v>619.39526271324939</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>619.39526271324939</v>
+      </c>
+      <c r="I4">
+        <v>650.49060959212284</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4" si="1">IF(I4&lt;0,0,I4)</f>
+        <v>650.49060959212284</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M46" si="2">CONCATENATE(K4,L4,TEXT(A4,"mmm-yy"),L4)</f>
+        <v>,"Jun-15"</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N43" si="3">CONCATENATE(K4,L4,TEXT(C4,"##"),L4)</f>
+        <v>,"351"</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O46" si="4">CONCATENATE(K4,L4,TEXT(F4,"##"),L4)</f>
+        <v>,"614"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P46" si="5">CONCATENATE(K4,L4,TEXT(H4,"##"),L4)</f>
+        <v>,"619"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q46" si="6">CONCATENATE(K4,L4,TEXT(J4,"##"),L4)</f>
+        <v>,"650"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42186</v>
+      </c>
+      <c r="C5">
+        <v>2163</v>
+      </c>
+      <c r="E5">
+        <v>1577.217588463368</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1577.217588463368</v>
+      </c>
+      <c r="G5">
+        <v>1492.3306300443789</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1492.3306300443789</v>
+      </c>
+      <c r="I5">
+        <v>1635.2927116947401</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="7">IF(I5&lt;0,0,I5)</f>
+        <v>1635.2927116947401</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-15"</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2163"</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1577"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1492"</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1635"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42217</v>
+      </c>
+      <c r="C6">
+        <v>1200</v>
+      </c>
+      <c r="E6">
+        <v>976.41118871733147</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>976.41118871733147</v>
+      </c>
+      <c r="G6">
+        <v>1275.1823743597499</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1275.1823743597499</v>
+      </c>
+      <c r="I6">
+        <v>1007.291778248711</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6" si="8">IF(I6&lt;0,0,I6)</f>
+        <v>1007.291778248711</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-15"</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1200"</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"976"</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1275"</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1007"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42248</v>
+      </c>
+      <c r="C7">
+        <v>1695</v>
+      </c>
+      <c r="E7">
+        <v>1710.7106230425441</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1710.7106230425441</v>
+      </c>
+      <c r="G7">
+        <v>1802.5119482909579</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1802.5119482909579</v>
+      </c>
+      <c r="I7">
+        <v>1531.1700655355521</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="9">IF(I7&lt;0,0,I7)</f>
+        <v>1531.1700655355521</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-15"</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1695"</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1711"</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1803"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1531"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42278</v>
+      </c>
+      <c r="C8">
+        <v>2118.75</v>
+      </c>
+      <c r="E8">
+        <v>1351.023392148448</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1351.023392148448</v>
+      </c>
+      <c r="G8">
+        <v>1358.8368732567619</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1358.8368732567619</v>
+      </c>
+      <c r="I8">
+        <v>1454.3268777782971</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="10">IF(I8&lt;0,0,I8)</f>
+        <v>1454.3268777782971</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-15"</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2119"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1351"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1359"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1454"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42309</v>
+      </c>
+      <c r="C9">
+        <v>1386.25</v>
+      </c>
+      <c r="E9">
+        <v>1091.7632557455679</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1091.7632557455679</v>
+      </c>
+      <c r="G9">
+        <v>935.29750286020919</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>935.29750286020919</v>
+      </c>
+      <c r="I9">
+        <v>1234.9787205075379</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="11">IF(I9&lt;0,0,I9)</f>
+        <v>1234.9787205075379</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-15"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1386"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1092"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>,"935"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1235"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42339</v>
+      </c>
+      <c r="C10">
+        <v>2245.416666666667</v>
+      </c>
+      <c r="E10">
+        <v>1160.4955163360701</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1160.4955163360701</v>
+      </c>
+      <c r="G10">
+        <v>1024.914814246835</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1024.914814246835</v>
+      </c>
+      <c r="I10">
+        <v>1049.0464662629661</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="12">IF(I10&lt;0,0,I10)</f>
+        <v>1049.0464662629661</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-15"</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2245"</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1160"</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1025"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1049"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42370</v>
+      </c>
+      <c r="C11">
+        <v>460</v>
+      </c>
+      <c r="E11">
+        <v>1834.7080063978001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1834.7080063978001</v>
+      </c>
+      <c r="G11">
+        <v>2058.753303367921</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2058.753303367921</v>
+      </c>
+      <c r="I11">
+        <v>1559.620634262367</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="13">IF(I11&lt;0,0,I11)</f>
+        <v>1559.620634262367</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-16"</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>,"460"</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1835"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2059"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1560"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42401</v>
+      </c>
+      <c r="C12">
+        <v>505</v>
+      </c>
+      <c r="E12">
+        <v>297.21893993843599</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>297.21893993843599</v>
+      </c>
+      <c r="G12">
+        <v>608.67365503386293</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>608.67365503386293</v>
+      </c>
+      <c r="I12">
+        <v>310.91233688865088</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="14">IF(I12&lt;0,0,I12)</f>
+        <v>310.91233688865088</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-16"</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>,"505"</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"297"</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>,"609"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>,"311"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42430</v>
+      </c>
+      <c r="C13">
+        <v>863</v>
+      </c>
+      <c r="E13">
+        <v>1094.9757549555591</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1094.9757549555591</v>
+      </c>
+      <c r="G13">
+        <v>1202.3387486936001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1202.3387486936001</v>
+      </c>
+      <c r="I13">
+        <v>1140.1575050816029</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="15">IF(I13&lt;0,0,I13)</f>
+        <v>1140.1575050816029</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-16"</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>,"863"</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1095"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1202"</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1140"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42461</v>
+      </c>
+      <c r="C14">
+        <v>1266</v>
+      </c>
+      <c r="E14">
+        <v>1665.584091562064</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1665.584091562064</v>
+      </c>
+      <c r="G14">
+        <v>1441.771833290105</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1441.771833290105</v>
+      </c>
+      <c r="I14">
+        <v>1676.0349176433349</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="16">IF(I14&lt;0,0,I14)</f>
+        <v>1676.0349176433349</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-16"</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1266"</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1666"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1442"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1676"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42491</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>-2606.4403826725402</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-2536.7880024217952</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-2942.1655029573171</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="17">IF(I15&lt;0,0,I15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-16"</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>,"79"</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>,""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42522</v>
+      </c>
+      <c r="C16">
+        <v>845</v>
+      </c>
+      <c r="E16">
+        <v>730.4191661796242</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>730.4191661796242</v>
+      </c>
+      <c r="G16">
+        <v>734.74623107808077</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>734.74623107808077</v>
+      </c>
+      <c r="I16">
+        <v>726.57443004516699</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="18">IF(I16&lt;0,0,I16)</f>
+        <v>726.57443004516699</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-16"</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>,"845"</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"730"</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>,"735"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>,"727"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42552</v>
+      </c>
+      <c r="C17">
+        <v>3445</v>
+      </c>
+      <c r="E17">
+        <v>2647.7019683597659</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2647.7019683597659</v>
+      </c>
+      <c r="G17">
+        <v>2328.453647067317</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2328.453647067317</v>
+      </c>
+      <c r="I17">
+        <v>2614.4569535229089</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="19">IF(I17&lt;0,0,I17)</f>
+        <v>2614.4569535229089</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-16"</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3445"</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2648"</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2328"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>,"2614"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42583</v>
+      </c>
+      <c r="C18">
+        <v>6377</v>
+      </c>
+      <c r="E18">
+        <v>5560.9160458633723</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5560.9160458633723</v>
+      </c>
+      <c r="G18">
+        <v>5183.9053928739959</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>5183.9053928739959</v>
+      </c>
+      <c r="I18">
+        <v>5594.0038307483474</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="20">IF(I18&lt;0,0,I18)</f>
+        <v>5594.0038307483474</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-16"</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6377"</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5561"</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>,"5184"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>,"5594"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42614</v>
+      </c>
+      <c r="C19">
+        <v>6154</v>
+      </c>
+      <c r="E19">
+        <v>10443.805227908389</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>10443.805227908389</v>
+      </c>
+      <c r="G19">
+        <v>10712.3514971062</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>10712.3514971062</v>
+      </c>
+      <c r="I19">
+        <v>10676.669164847321</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19" si="21">IF(I19&lt;0,0,I19)</f>
+        <v>10676.669164847321</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-16"</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6154"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>,"10444"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>,"10712"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>,"10677"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42644</v>
+      </c>
+      <c r="C20">
+        <v>4865</v>
+      </c>
+      <c r="E20">
+        <v>7009.4092020842627</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>7009.4092020842627</v>
+      </c>
+      <c r="G20">
+        <v>7083.0101905358861</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>7083.0101905358861</v>
+      </c>
+      <c r="I20">
+        <v>7156.6607844468936</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="22">IF(I20&lt;0,0,I20)</f>
+        <v>7156.6607844468936</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-16"</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>,"4865"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>,"7009"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>,"7083"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>,"7157"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42675</v>
+      </c>
+      <c r="C21">
+        <v>6081.25</v>
+      </c>
+      <c r="E21">
+        <v>5364.9390335769267</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5364.9390335769267</v>
+      </c>
+      <c r="G21">
+        <v>5976.2100834151606</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>5976.2100834151606</v>
+      </c>
+      <c r="I21">
+        <v>5382.3031360545911</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="23">IF(I21&lt;0,0,I21)</f>
+        <v>5382.3031360545911</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-16"</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6081"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5365"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>,"5976"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>,"5382"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42705</v>
+      </c>
+      <c r="C22">
+        <v>2199</v>
+      </c>
+      <c r="E22">
+        <v>6932.6885286210327</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>6932.6885286210327</v>
+      </c>
+      <c r="G22">
+        <v>7528.1337449938419</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>7528.1337449938419</v>
+      </c>
+      <c r="I22">
+        <v>7413.0604318200176</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="24">IF(I22&lt;0,0,I22)</f>
+        <v>7413.0604318200176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-16"</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2199"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>,"6933"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>,"7528"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>,"7413"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C23">
+        <v>536</v>
+      </c>
+      <c r="E23">
+        <v>-811.68327235569654</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-1123.454481298442</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>-542.99113268944177</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="25">IF(I23&lt;0,0,I23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-17"</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>,"536"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>,""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42767</v>
+      </c>
+      <c r="C24">
+        <v>420</v>
+      </c>
+      <c r="E24">
+        <v>662.1101047673485</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>662.1101047673485</v>
+      </c>
+      <c r="G24">
+        <v>1065.592325070726</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1065.592325070726</v>
+      </c>
+      <c r="I24">
+        <v>646.15432049494541</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="26">IF(I24&lt;0,0,I24)</f>
+        <v>646.15432049494541</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-17"</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>,"420"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="4"/>
+        <v>,"662"</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1066"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>,"646"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42795</v>
+      </c>
+      <c r="C25">
+        <v>251</v>
+      </c>
+      <c r="E25">
+        <v>123.8053975999637</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>123.8053975999637</v>
+      </c>
+      <c r="G25">
+        <v>29.629382643499731</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>29.629382643499731</v>
+      </c>
+      <c r="I25">
+        <v>251.86351909277991</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="27">IF(I25&lt;0,0,I25)</f>
+        <v>251.86351909277991</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-17"</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>,"251"</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="4"/>
+        <v>,"124"</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="5"/>
+        <v>,"30"</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>,"252"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42826</v>
+      </c>
+      <c r="C26">
+        <v>472</v>
+      </c>
+      <c r="E26">
+        <v>355.78261068126619</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>355.78261068126619</v>
+      </c>
+      <c r="G26">
+        <v>420.87748533509972</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>420.87748533509972</v>
+      </c>
+      <c r="I26">
+        <v>352.74303090556771</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="28">IF(I26&lt;0,0,I26)</f>
+        <v>352.74303090556771</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-17"</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>,"472"</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>,"356"</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="5"/>
+        <v>,"421"</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>,"353"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C27">
+        <v>236</v>
+      </c>
+      <c r="E27">
+        <v>1384.5662192803859</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1384.5662192803859</v>
+      </c>
+      <c r="G27">
+        <v>1318.216569972672</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1318.216569972672</v>
+      </c>
+      <c r="I27">
+        <v>1170.5514473338119</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="29">IF(I27&lt;0,0,I27)</f>
+        <v>1170.5514473338119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-17"</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>,"236"</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1385"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1318"</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1171"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>42887</v>
+      </c>
+      <c r="C28">
+        <v>478</v>
+      </c>
+      <c r="E28">
+        <v>528.6228957253652</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>528.6228957253652</v>
+      </c>
+      <c r="G28">
+        <v>503.9643654906759</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>503.9643654906759</v>
+      </c>
+      <c r="I28">
+        <v>518.08183676838098</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="30">IF(I28&lt;0,0,I28)</f>
+        <v>518.08183676838098</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-17"</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>,"478"</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>,"529"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="5"/>
+        <v>,"504"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>,"518"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42917</v>
+      </c>
+      <c r="C29">
+        <v>931</v>
+      </c>
+      <c r="E29">
+        <v>906.55079792467359</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>906.55079792467359</v>
+      </c>
+      <c r="G29">
+        <v>894.07744791883999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>894.07744791883999</v>
+      </c>
+      <c r="I29">
+        <v>967.53985071387342</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="31">IF(I29&lt;0,0,I29)</f>
+        <v>967.53985071387342</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-17"</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>,"931"</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>,"907"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="5"/>
+        <v>,"894"</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>,"968"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>42948</v>
+      </c>
+      <c r="C30">
+        <v>1744</v>
+      </c>
+      <c r="E30">
+        <v>2060.7812789414361</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2060.7812789414361</v>
+      </c>
+      <c r="G30">
+        <v>2034.069870303696</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2034.069870303696</v>
+      </c>
+      <c r="I30">
+        <v>2038.5477677956319</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="32">IF(I30&lt;0,0,I30)</f>
+        <v>2038.5477677956319</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-17"</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1744"</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2061"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2034"</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>,"2039"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C31">
+        <v>1614</v>
+      </c>
+      <c r="E31">
+        <v>417.97915861575899</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>417.97915861575899</v>
+      </c>
+      <c r="G31">
+        <v>211.1184391924468</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>211.1184391924468</v>
+      </c>
+      <c r="I31">
+        <v>615.22714729897996</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="33">IF(I31&lt;0,0,I31)</f>
+        <v>615.22714729897996</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-17"</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1614"</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>,"418"</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="5"/>
+        <v>,"211"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>,"615"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C32">
+        <v>1751</v>
+      </c>
+      <c r="E32">
+        <v>1919.627924448326</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1919.627924448326</v>
+      </c>
+      <c r="G32">
+        <v>1892.8846142669911</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1892.8846142669911</v>
+      </c>
+      <c r="I32">
+        <v>1782.6416222872649</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32" si="34">IF(I32&lt;0,0,I32)</f>
+        <v>1782.6416222872649</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-17"</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1751"</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1920"</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1893"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1783"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43040</v>
+      </c>
+      <c r="C33">
+        <v>534</v>
+      </c>
+      <c r="E33">
+        <v>2392.8292089864858</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2392.8292089864858</v>
+      </c>
+      <c r="G33">
+        <v>1907.751390424874</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1907.751390424874</v>
+      </c>
+      <c r="I33">
+        <v>2693.6752988909311</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="35">IF(I33&lt;0,0,I33)</f>
+        <v>2693.6752988909311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-17"</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>,"534"</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2393"</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1908"</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>,"2694"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43070</v>
+      </c>
+      <c r="C34">
+        <v>1335</v>
+      </c>
+      <c r="E34">
+        <v>1677.947912632711</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1677.947912632711</v>
+      </c>
+      <c r="G34">
+        <v>1643.9176010545009</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1643.9176010545009</v>
+      </c>
+      <c r="I34">
+        <v>1749.911369917507</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="36">IF(I34&lt;0,0,I34)</f>
+        <v>1749.911369917507</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-17"</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1335"</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1678"</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="5"/>
+        <v>,"1644"</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="6"/>
+        <v>,"1750"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43101</v>
+      </c>
+      <c r="C35">
+        <v>409</v>
+      </c>
+      <c r="E35">
+        <v>5094.9309063213104</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>5094.9309063213104</v>
+      </c>
+      <c r="G35">
+        <v>4738.1568787046108</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>4738.1568787046108</v>
+      </c>
+      <c r="I35">
+        <v>5285.8566293903414</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="37">IF(I35&lt;0,0,I35)</f>
+        <v>5285.8566293903414</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jan-18"</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>,"409"</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5095"</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="5"/>
+        <v>,"4738"</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="6"/>
+        <v>,"5286"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C36">
+        <v>503</v>
+      </c>
+      <c r="E36">
+        <v>399.1384341337581</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>399.1384341337581</v>
+      </c>
+      <c r="G36">
+        <v>854.7434375888563</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>854.7434375888563</v>
+      </c>
+      <c r="I36">
+        <v>390.67529062089483</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="38">IF(I36&lt;0,0,I36)</f>
+        <v>390.67529062089483</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Feb-18"</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>,"503"</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>,"399"</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="5"/>
+        <v>,"855"</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="6"/>
+        <v>,"391"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C37">
+        <v>570</v>
+      </c>
+      <c r="E37">
+        <v>2812.9174824592028</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2812.9174824592028</v>
+      </c>
+      <c r="G37">
+        <v>2894.034264931724</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2894.034264931724</v>
+      </c>
+      <c r="I37">
+        <v>2779.1753645313952</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="39">IF(I37&lt;0,0,I37)</f>
+        <v>2779.1753645313952</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Mar-18"</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>,"570"</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2813"</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2894"</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="6"/>
+        <v>,"2779"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43191</v>
+      </c>
+      <c r="C38">
+        <v>368</v>
+      </c>
+      <c r="E38">
+        <v>170.795548706559</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>170.795548706559</v>
+      </c>
+      <c r="G38">
+        <v>105.87221678344601</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>105.87221678344601</v>
+      </c>
+      <c r="I38">
+        <v>145.08631952262951</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="40">IF(I38&lt;0,0,I38)</f>
+        <v>145.08631952262951</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Apr-18"</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>,"368"</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>,"171"</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>,"106"</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="6"/>
+        <v>,"145"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C39">
+        <v>521</v>
+      </c>
+      <c r="E39">
+        <v>328.87960550832918</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>328.87960550832918</v>
+      </c>
+      <c r="G39">
+        <v>239.04910749527761</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>239.04910749527761</v>
+      </c>
+      <c r="I39">
+        <v>181.61664105908639</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39" si="41">IF(I39&lt;0,0,I39)</f>
+        <v>181.61664105908639</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"May-18"</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>,"521"</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>,"329"</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>,"239"</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="6"/>
+        <v>,"182"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43252</v>
+      </c>
+      <c r="C40">
+        <v>948</v>
+      </c>
+      <c r="E40">
+        <v>2252.4362945470998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2252.4362945470998</v>
+      </c>
+      <c r="G40">
+        <v>2233.827379424059</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2233.827379424059</v>
+      </c>
+      <c r="I40">
+        <v>2330.7062307032388</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="42">IF(I40&lt;0,0,I40)</f>
+        <v>2330.7062307032388</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jun-18"</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>,"948"</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2252"</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="5"/>
+        <v>,"2234"</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="6"/>
+        <v>,"2331"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>43282</v>
+      </c>
+      <c r="C41">
+        <v>1761</v>
+      </c>
+      <c r="E41">
+        <v>4235.1424646621899</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4235.1424646621899</v>
+      </c>
+      <c r="G41">
+        <v>4204.2704213155384</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>4204.2704213155384</v>
+      </c>
+      <c r="I41">
+        <v>4337.674533447971</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41" si="43">IF(I41&lt;0,0,I41)</f>
+        <v>4337.674533447971</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Jul-18"</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1761"</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="4"/>
+        <v>,"4235"</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="5"/>
+        <v>,"4204"</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="6"/>
+        <v>,"4338"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43313</v>
+      </c>
+      <c r="C42">
+        <v>4471</v>
+      </c>
+      <c r="E42">
+        <v>5390.5546417221767</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>5390.5546417221767</v>
+      </c>
+      <c r="G42">
+        <v>5378.6212594711396</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>5378.6212594711396</v>
+      </c>
+      <c r="I42">
+        <v>5199.2871360248164</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="44">IF(I42&lt;0,0,I42)</f>
+        <v>5199.2871360248164</v>
+      </c>
+      <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Aug-18"</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>,"4471"</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5391"</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v>,"5379"</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="6"/>
+        <v>,"5199"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43344</v>
+      </c>
+      <c r="C43">
+        <v>4310</v>
+      </c>
+      <c r="E43">
+        <v>-2522.6838076863819</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>-4507.6369751783041</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>-2026.707992724206</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="45">IF(I43&lt;0,0,I43)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Sep-18"</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>,"4310"</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="6"/>
+        <v>,""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43374</v>
+      </c>
+      <c r="C44">
+        <v>3942.916666666667</v>
+      </c>
+      <c r="E44">
+        <v>-10693.4022321087</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>-10146.72986304464</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>-9955.263005330713</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="46">IF(I44&lt;0,0,I44)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Oct-18"</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="4"/>
+        <v>,""</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>,""</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="6"/>
+        <v>,""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43405</v>
+      </c>
+      <c r="C45">
+        <v>1684</v>
+      </c>
+      <c r="E45">
+        <v>18725.906234326161</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>18725.906234326161</v>
+      </c>
+      <c r="G45">
+        <v>18618.356230250662</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>18618.356230250662</v>
+      </c>
+      <c r="I45">
+        <v>18875.003315758851</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45" si="47">IF(I45&lt;0,0,I45)</f>
+        <v>18875.003315758851</v>
+      </c>
+      <c r="K45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Nov-18"</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>,"18726"</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>,"18618"</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="6"/>
+        <v>,"18875"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43435</v>
+      </c>
+      <c r="C46">
+        <v>1855</v>
+      </c>
+      <c r="E46">
+        <v>7089.5084267049433</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>7089.5084267049433</v>
+      </c>
+      <c r="G46">
+        <v>6869.4583226561481</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>6869.4583226561481</v>
+      </c>
+      <c r="I46">
+        <v>7154.3541638844781</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="48">IF(I46&lt;0,0,I46)</f>
+        <v>7154.3541638844781</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"Dec-18"</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="4"/>
+        <v>,"7090"</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>,"6869"</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="6"/>
+        <v>,"7154"</v>
       </c>
     </row>
   </sheetData>
@@ -2455,15 +6508,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2501,7 +6554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2518,31 +6571,31 @@
         <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.8081753488835275</v>
+        <v>0.80817534888352749</v>
       </c>
       <c r="G2">
-        <v>0.5752454153849538</v>
+        <v>0.57524541538495377</v>
       </c>
       <c r="H2">
-        <v>0.8247830911924021</v>
+        <v>0.82478309119240212</v>
       </c>
       <c r="I2">
-        <v>0.855240031045635</v>
+        <v>0.85524003104563495</v>
       </c>
       <c r="J2">
-        <v>0.5488308424002699</v>
+        <v>0.54883084240026991</v>
       </c>
       <c r="K2">
-        <v>2.256793746885109</v>
+        <v>2.2567937468851089</v>
       </c>
       <c r="L2">
-        <v>7.351992633298159</v>
+        <v>7.3519926332981589</v>
       </c>
       <c r="M2">
-        <v>2.711455814373186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.7114558143731862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2556,34 +6609,34 @@
         <v>29</v>
       </c>
       <c r="E3">
-        <v>0.5294117647058824</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="F3">
-        <v>0.7940256478274874</v>
+        <v>0.79402564782748741</v>
       </c>
       <c r="G3">
-        <v>0.5743196721768073</v>
+        <v>0.57431967217680735</v>
       </c>
       <c r="H3">
         <v>0.9918817523861001</v>
       </c>
       <c r="I3">
-        <v>0.9312219297736615</v>
+        <v>0.93122192977366147</v>
       </c>
       <c r="J3">
-        <v>0.8137748191483002</v>
+        <v>0.81377481914830019</v>
       </c>
       <c r="K3">
-        <v>2.335311167093004</v>
+        <v>2.3353111670930038</v>
       </c>
       <c r="L3">
-        <v>7.357469768402865</v>
+        <v>7.3574697684028649</v>
       </c>
       <c r="M3">
         <v>2.712465625294239</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2597,31 +6650,31 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>0.4210526315789473</v>
+        <v>0.42105263157894729</v>
       </c>
       <c r="F4">
-        <v>0.8140119822762863</v>
+        <v>0.81401198227628635</v>
       </c>
       <c r="G4">
-        <v>0.5564901115819136</v>
+        <v>0.55649011158191364</v>
       </c>
       <c r="H4">
         <v>0.9099415699717851</v>
       </c>
       <c r="I4">
-        <v>0.511006784293638</v>
+        <v>0.51100678429363799</v>
       </c>
       <c r="J4">
-        <v>0.4259874408793931</v>
+        <v>0.42598744087939311</v>
       </c>
       <c r="K4">
-        <v>2.297277212754537</v>
+        <v>2.2972772127545369</v>
       </c>
       <c r="L4">
         <v>7.469564972423723</v>
       </c>
       <c r="M4">
-        <v>2.73305048845127</v>
+        <v>2.7330504884512701</v>
       </c>
     </row>
   </sheetData>
